--- a/Code/Results/Cases/Case_4_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019334463052446</v>
+        <v>1.051327616492103</v>
       </c>
       <c r="D2">
-        <v>1.036310562921398</v>
+        <v>1.057001391769153</v>
       </c>
       <c r="E2">
-        <v>1.02738523187439</v>
+        <v>1.055005077837572</v>
       </c>
       <c r="F2">
-        <v>1.037430221710788</v>
+        <v>1.064842128277711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050478268725268</v>
+        <v>1.045860508727283</v>
       </c>
       <c r="J2">
-        <v>1.040951871240139</v>
+        <v>1.056356072460677</v>
       </c>
       <c r="K2">
-        <v>1.047286190754749</v>
+        <v>1.059737558029918</v>
       </c>
       <c r="L2">
-        <v>1.038475788178414</v>
+        <v>1.057746727003507</v>
       </c>
       <c r="M2">
-        <v>1.048391606419319</v>
+        <v>1.067556975148261</v>
       </c>
       <c r="N2">
-        <v>1.016700590168172</v>
+        <v>1.022491572486312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025003752031187</v>
+        <v>1.052494811593085</v>
       </c>
       <c r="D3">
-        <v>1.0408417367864</v>
+        <v>1.057955194014173</v>
       </c>
       <c r="E3">
-        <v>1.032564847522973</v>
+        <v>1.056122298255516</v>
       </c>
       <c r="F3">
-        <v>1.042712744525948</v>
+        <v>1.065985567628592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052477108926266</v>
+        <v>1.046209669369522</v>
       </c>
       <c r="J3">
-        <v>1.044835244720419</v>
+        <v>1.057172245307255</v>
       </c>
       <c r="K3">
-        <v>1.050977406346636</v>
+        <v>1.060504754297706</v>
       </c>
       <c r="L3">
-        <v>1.042797343645185</v>
+        <v>1.058676527299321</v>
       </c>
       <c r="M3">
-        <v>1.052826789394134</v>
+        <v>1.068514876785215</v>
       </c>
       <c r="N3">
-        <v>1.018065242127445</v>
+        <v>1.022772460480003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028584858324944</v>
+        <v>1.053249939910301</v>
       </c>
       <c r="D4">
-        <v>1.04370689271899</v>
+        <v>1.058572238221572</v>
       </c>
       <c r="E4">
-        <v>1.035841863772961</v>
+        <v>1.056845426037172</v>
       </c>
       <c r="F4">
-        <v>1.04605561565516</v>
+        <v>1.066725727466742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05373019702769</v>
+        <v>1.046434332139521</v>
       </c>
       <c r="J4">
-        <v>1.047284585056662</v>
+        <v>1.057699689611451</v>
       </c>
       <c r="K4">
-        <v>1.053304949253627</v>
+        <v>1.061000429027795</v>
       </c>
       <c r="L4">
-        <v>1.04552612942582</v>
+        <v>1.059277793150013</v>
       </c>
       <c r="M4">
-        <v>1.055628235944579</v>
+        <v>1.069134395142485</v>
       </c>
       <c r="N4">
-        <v>1.018925072421867</v>
+        <v>1.022953768284958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030070361968845</v>
+        <v>1.053567367335855</v>
       </c>
       <c r="D5">
-        <v>1.044896056181518</v>
+        <v>1.058831613064274</v>
       </c>
       <c r="E5">
-        <v>1.037202433682451</v>
+        <v>1.057149480417672</v>
       </c>
       <c r="F5">
-        <v>1.047443701474547</v>
+        <v>1.067036958040134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054247674831381</v>
+        <v>1.046528477224533</v>
       </c>
       <c r="J5">
-        <v>1.048299692596358</v>
+        <v>1.057921266515857</v>
       </c>
       <c r="K5">
-        <v>1.054269425641244</v>
+        <v>1.061208631091416</v>
       </c>
       <c r="L5">
-        <v>1.046657792294685</v>
+        <v>1.059530475788334</v>
       </c>
       <c r="M5">
-        <v>1.056790245783925</v>
+        <v>1.069394767620412</v>
       </c>
       <c r="N5">
-        <v>1.019281195481954</v>
+        <v>1.02302988352844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030318637467948</v>
+        <v>1.053620663165659</v>
       </c>
       <c r="D6">
-        <v>1.045094840053186</v>
+        <v>1.05887516146492</v>
       </c>
       <c r="E6">
-        <v>1.037429898500072</v>
+        <v>1.057200535528099</v>
       </c>
       <c r="F6">
-        <v>1.04767577656727</v>
+        <v>1.067089218997086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05433402419139</v>
+        <v>1.046544266830882</v>
       </c>
       <c r="J6">
-        <v>1.048469294453889</v>
+        <v>1.057958460851068</v>
       </c>
       <c r="K6">
-        <v>1.054430558873989</v>
+        <v>1.06124357861922</v>
       </c>
       <c r="L6">
-        <v>1.046846911688893</v>
+        <v>1.059572897087383</v>
       </c>
       <c r="M6">
-        <v>1.056984449066777</v>
+        <v>1.069438481042732</v>
       </c>
       <c r="N6">
-        <v>1.019340682059549</v>
+        <v>1.023042657366993</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028604785099107</v>
+        <v>1.053254181501398</v>
       </c>
       <c r="D7">
-        <v>1.043722841857856</v>
+        <v>1.058575704120307</v>
       </c>
       <c r="E7">
-        <v>1.035860109948754</v>
+        <v>1.056849488623425</v>
       </c>
       <c r="F7">
-        <v>1.046074230157995</v>
+        <v>1.066729885879146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053737147796941</v>
+        <v>1.04643559130152</v>
       </c>
       <c r="J7">
-        <v>1.047298205557774</v>
+        <v>1.057702650963379</v>
       </c>
       <c r="K7">
-        <v>1.05331789101515</v>
+        <v>1.061003211738919</v>
       </c>
       <c r="L7">
-        <v>1.045541310903364</v>
+        <v>1.059281169858615</v>
       </c>
       <c r="M7">
-        <v>1.055643823694824</v>
+        <v>1.069137874538381</v>
       </c>
       <c r="N7">
-        <v>1.018929851717084</v>
+        <v>1.022954785759141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02126906684448</v>
+        <v>1.05172210225568</v>
       </c>
       <c r="D8">
-        <v>1.037856131960209</v>
+        <v>1.057323760838637</v>
       </c>
       <c r="E8">
-        <v>1.029151612643766</v>
+        <v>1.055382604426728</v>
       </c>
       <c r="F8">
-        <v>1.03923153585161</v>
+        <v>1.065228501852431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051162332505709</v>
+        <v>1.045978771829607</v>
       </c>
       <c r="J8">
-        <v>1.042277787537571</v>
+        <v>1.056632041894915</v>
       </c>
       <c r="K8">
-        <v>1.048546617726912</v>
+        <v>1.059996991765978</v>
       </c>
       <c r="L8">
-        <v>1.03995067068453</v>
+        <v>1.058061035906462</v>
       </c>
       <c r="M8">
-        <v>1.049905073138658</v>
+        <v>1.067880766703347</v>
       </c>
       <c r="N8">
-        <v>1.017166708348244</v>
+        <v>1.022586592203989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007630060574688</v>
+        <v>1.049021363063224</v>
       </c>
       <c r="D9">
-        <v>1.026975222485266</v>
+        <v>1.055116661615341</v>
       </c>
       <c r="E9">
-        <v>1.016722885907935</v>
+        <v>1.052799348793757</v>
       </c>
       <c r="F9">
-        <v>1.026560447811351</v>
+        <v>1.062584965402987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300787721761</v>
+        <v>1.04516407621411</v>
       </c>
       <c r="J9">
-        <v>1.032916229241986</v>
+        <v>1.054740297391627</v>
       </c>
       <c r="K9">
-        <v>1.039645297398878</v>
+        <v>1.058218114019024</v>
       </c>
       <c r="L9">
-        <v>1.029550349789507</v>
+        <v>1.055908081499276</v>
       </c>
       <c r="M9">
-        <v>1.039236812383391</v>
+        <v>1.065663190594871</v>
       </c>
       <c r="N9">
-        <v>1.013872428436176</v>
+        <v>1.021934371430367</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9979915693184214</v>
+        <v>1.047220094499922</v>
       </c>
       <c r="D10">
-        <v>1.019308760201275</v>
+        <v>1.053644545459211</v>
       </c>
       <c r="E10">
-        <v>1.007973092734976</v>
+        <v>1.051078186251793</v>
       </c>
       <c r="F10">
-        <v>1.017644726840862</v>
+        <v>1.060823962520831</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042817697031453</v>
+        <v>1.044614389257994</v>
       </c>
       <c r="J10">
-        <v>1.026285100017609</v>
+        <v>1.053475595306247</v>
       </c>
       <c r="K10">
-        <v>1.03333792622466</v>
+        <v>1.057028264443794</v>
       </c>
       <c r="L10">
-        <v>1.022199867426416</v>
+        <v>1.054470763342813</v>
       </c>
       <c r="M10">
-        <v>1.031702544511254</v>
+        <v>1.064183151135706</v>
       </c>
       <c r="N10">
-        <v>1.011535393346358</v>
+        <v>1.02149725287779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9936718661009875</v>
+        <v>1.04643992052577</v>
       </c>
       <c r="D11">
-        <v>1.015879457621099</v>
+        <v>1.053006924475879</v>
       </c>
       <c r="E11">
-        <v>1.004060463566318</v>
+        <v>1.050333129704329</v>
       </c>
       <c r="F11">
-        <v>1.013659126486348</v>
+        <v>1.060061737453761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041246098542678</v>
+        <v>1.04437480863045</v>
       </c>
       <c r="J11">
-        <v>1.023310293209206</v>
+        <v>1.052927114843271</v>
       </c>
       <c r="K11">
-        <v>1.030507997709945</v>
+        <v>1.056512104762732</v>
       </c>
       <c r="L11">
-        <v>1.01890620960257</v>
+        <v>1.053847898769691</v>
       </c>
       <c r="M11">
-        <v>1.028327968355514</v>
+        <v>1.063541873707439</v>
       </c>
       <c r="N11">
-        <v>1.010486323358574</v>
+        <v>1.021307427064008</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9920437992967215</v>
+        <v>1.046150095313479</v>
       </c>
       <c r="D12">
-        <v>1.014588073421157</v>
+        <v>1.052770055032101</v>
       </c>
       <c r="E12">
-        <v>1.002587219123081</v>
+        <v>1.050056414069533</v>
       </c>
       <c r="F12">
-        <v>1.012158600673167</v>
+        <v>1.059778657119713</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040652249155197</v>
+        <v>1.044285582468237</v>
       </c>
       <c r="J12">
-        <v>1.022188738869345</v>
+        <v>1.052723255109011</v>
       </c>
       <c r="K12">
-        <v>1.029441025891906</v>
+        <v>1.056320236911199</v>
       </c>
       <c r="L12">
-        <v>1.017665019391984</v>
+        <v>1.053616463438976</v>
       </c>
       <c r="M12">
-        <v>1.027056510324029</v>
+        <v>1.063303611953976</v>
       </c>
       <c r="N12">
-        <v>1.010090726296523</v>
+        <v>1.021236834367634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9923941171666638</v>
+        <v>1.046212265368002</v>
       </c>
       <c r="D13">
-        <v>1.014865894586957</v>
+        <v>1.052820865640367</v>
       </c>
       <c r="E13">
-        <v>1.002904158712215</v>
+        <v>1.050115769105193</v>
       </c>
       <c r="F13">
-        <v>1.012481400329376</v>
+        <v>1.059839376840752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040780097962325</v>
+        <v>1.044304732436408</v>
       </c>
       <c r="J13">
-        <v>1.022430083903139</v>
+        <v>1.052766989598675</v>
       </c>
       <c r="K13">
-        <v>1.029670626929457</v>
+        <v>1.0563613997095</v>
       </c>
       <c r="L13">
-        <v>1.01793208264439</v>
+        <v>1.053666110546538</v>
       </c>
       <c r="M13">
-        <v>1.027330075849263</v>
+        <v>1.063354722766436</v>
       </c>
       <c r="N13">
-        <v>1.010175857320414</v>
+        <v>1.021251980497208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9935377793705292</v>
+        <v>1.046415964185</v>
       </c>
       <c r="D14">
-        <v>1.015773076985396</v>
+        <v>1.052987345362425</v>
       </c>
       <c r="E14">
-        <v>1.003939099040199</v>
+        <v>1.050310255667395</v>
       </c>
       <c r="F14">
-        <v>1.013535510522723</v>
+        <v>1.060038337054513</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04119721999233</v>
+        <v>1.044367437969931</v>
       </c>
       <c r="J14">
-        <v>1.023217929677354</v>
+        <v>1.052910266385319</v>
       </c>
       <c r="K14">
-        <v>1.030420129922356</v>
+        <v>1.056496247831944</v>
       </c>
       <c r="L14">
-        <v>1.018803981992043</v>
+        <v>1.053828769803744</v>
       </c>
       <c r="M14">
-        <v>1.028223243164965</v>
+        <v>1.06352218020318</v>
       </c>
       <c r="N14">
-        <v>1.010453746198353</v>
+        <v>1.021301593542852</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942392589195514</v>
+        <v>1.046541465205591</v>
       </c>
       <c r="D15">
-        <v>1.016329656402986</v>
+        <v>1.053089915196337</v>
       </c>
       <c r="E15">
-        <v>1.00457407935963</v>
+        <v>1.050430089399541</v>
       </c>
       <c r="F15">
-        <v>1.014182278386933</v>
+        <v>1.060160928802483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041452868206988</v>
+        <v>1.044406041731008</v>
       </c>
       <c r="J15">
-        <v>1.023701118177033</v>
+        <v>1.052998526728512</v>
       </c>
       <c r="K15">
-        <v>1.030879797988402</v>
+        <v>1.05657931321337</v>
       </c>
       <c r="L15">
-        <v>1.019338796661435</v>
+        <v>1.053928979476434</v>
       </c>
       <c r="M15">
-        <v>1.028771133441673</v>
+        <v>1.063625347907639</v>
       </c>
       <c r="N15">
-        <v>1.010624166501738</v>
+        <v>1.021332150781244</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982750429000951</v>
+        <v>1.047271867432374</v>
       </c>
       <c r="D16">
-        <v>1.01953394842351</v>
+        <v>1.053686858295931</v>
       </c>
       <c r="E16">
-        <v>1.008230041795322</v>
+        <v>1.05112763769229</v>
       </c>
       <c r="F16">
-        <v>1.01790649442467</v>
+        <v>1.060874555123528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042920616237176</v>
+        <v>1.044630256471883</v>
       </c>
       <c r="J16">
-        <v>1.026480261951588</v>
+        <v>1.053511978021454</v>
       </c>
       <c r="K16">
-        <v>1.033523577159327</v>
+        <v>1.057062500234238</v>
       </c>
       <c r="L16">
-        <v>1.022416027443154</v>
+        <v>1.054512090259921</v>
       </c>
       <c r="M16">
-        <v>1.031924045766355</v>
+        <v>1.064225701864171</v>
       </c>
       <c r="N16">
-        <v>1.011604205540633</v>
+        <v>1.021509839373016</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000766381546954</v>
+        <v>1.047729971146171</v>
       </c>
       <c r="D17">
-        <v>1.021513799644641</v>
+        <v>1.054061254823704</v>
       </c>
       <c r="E17">
-        <v>1.010489272171441</v>
+        <v>1.051565248848916</v>
       </c>
       <c r="F17">
-        <v>1.020208232243343</v>
+        <v>1.061322273749387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043823940819949</v>
+        <v>1.04477048176757</v>
       </c>
       <c r="J17">
-        <v>1.028195140665919</v>
+        <v>1.053833822507396</v>
       </c>
       <c r="K17">
-        <v>1.035154843717868</v>
+        <v>1.057365336527932</v>
       </c>
       <c r="L17">
-        <v>1.024315852510993</v>
+        <v>1.054877726572901</v>
       </c>
       <c r="M17">
-        <v>1.033870978632131</v>
+        <v>1.064602177356137</v>
       </c>
       <c r="N17">
-        <v>1.01220878379014</v>
+        <v>1.021621151169803</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002205547585606</v>
+        <v>1.047997154886728</v>
       </c>
       <c r="D18">
-        <v>1.02265811160213</v>
+        <v>1.054279616192707</v>
       </c>
       <c r="E18">
-        <v>1.011795181505539</v>
+        <v>1.051820521168404</v>
       </c>
       <c r="F18">
-        <v>1.021538827601927</v>
+        <v>1.061583449552573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044344758491677</v>
+        <v>1.044852122080049</v>
       </c>
       <c r="J18">
-        <v>1.029185490154482</v>
+        <v>1.054021466418634</v>
       </c>
       <c r="K18">
-        <v>1.036096871434263</v>
+        <v>1.057541884506273</v>
       </c>
       <c r="L18">
-        <v>1.025413374086904</v>
+        <v>1.055090948235637</v>
       </c>
       <c r="M18">
-        <v>1.034995848999471</v>
+        <v>1.06482172959906</v>
       </c>
       <c r="N18">
-        <v>1.01255786787494</v>
+        <v>1.02168602434769</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002693938622321</v>
+        <v>1.048088254234012</v>
       </c>
       <c r="D19">
-        <v>1.023046543261403</v>
+        <v>1.05435406878406</v>
       </c>
       <c r="E19">
-        <v>1.012238488598374</v>
+        <v>1.051907566055172</v>
       </c>
       <c r="F19">
-        <v>1.021990533933679</v>
+        <v>1.06167250872494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044521329491366</v>
+        <v>1.044879933765443</v>
       </c>
       <c r="J19">
-        <v>1.02952152259035</v>
+        <v>1.054085434176159</v>
       </c>
       <c r="K19">
-        <v>1.03641650150915</v>
+        <v>1.057602067344179</v>
       </c>
       <c r="L19">
-        <v>1.025785832736223</v>
+        <v>1.055163643236923</v>
       </c>
       <c r="M19">
-        <v>1.035377611403169</v>
+        <v>1.064896584565937</v>
       </c>
       <c r="N19">
-        <v>1.012676303427999</v>
+        <v>1.021708135423068</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000500542424459</v>
+        <v>1.047680823077136</v>
       </c>
       <c r="D20">
-        <v>1.021302474305178</v>
+        <v>1.054021087465592</v>
       </c>
       <c r="E20">
-        <v>1.010248114069621</v>
+        <v>1.051518295135912</v>
       </c>
       <c r="F20">
-        <v>1.019962524706583</v>
+        <v>1.06127423477613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043727655045215</v>
+        <v>1.044755452514622</v>
       </c>
       <c r="J20">
-        <v>1.028012182627253</v>
+        <v>1.053799300184047</v>
       </c>
       <c r="K20">
-        <v>1.034980809714612</v>
+        <v>1.057332854510356</v>
       </c>
       <c r="L20">
-        <v>1.024113124946525</v>
+        <v>1.054838502210297</v>
       </c>
       <c r="M20">
-        <v>1.033663210198597</v>
+        <v>1.064561789196407</v>
       </c>
       <c r="N20">
-        <v>1.012144288520224</v>
+        <v>1.021609213962365</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9932016624843574</v>
+        <v>1.04635598091037</v>
       </c>
       <c r="D21">
-        <v>1.01550642934201</v>
+        <v>1.052938322030424</v>
       </c>
       <c r="E21">
-        <v>1.003634895861477</v>
+        <v>1.050252983361573</v>
       </c>
       <c r="F21">
-        <v>1.013225667236046</v>
+        <v>1.059979747025698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041074671202536</v>
+        <v>1.04434897925122</v>
       </c>
       <c r="J21">
-        <v>1.022986395144721</v>
+        <v>1.052868078530659</v>
       </c>
       <c r="K21">
-        <v>1.030199864630781</v>
+        <v>1.056456542380095</v>
       </c>
       <c r="L21">
-        <v>1.018547729709072</v>
+        <v>1.053780872805296</v>
       </c>
       <c r="M21">
-        <v>1.027960733907826</v>
+        <v>1.063472869903089</v>
       </c>
       <c r="N21">
-        <v>1.010372081395023</v>
+        <v>1.021286986028697</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9884754987806177</v>
+        <v>1.045522803211208</v>
       </c>
       <c r="D22">
-        <v>1.011759837529325</v>
+        <v>1.052257378424178</v>
       </c>
       <c r="E22">
-        <v>0.9993609177860789</v>
+        <v>1.049457613497551</v>
       </c>
       <c r="F22">
-        <v>1.008872926358209</v>
+        <v>1.059166105139699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039347952773434</v>
+        <v>1.044092052050142</v>
       </c>
       <c r="J22">
-        <v>1.019729981866276</v>
+        <v>1.052281831771311</v>
       </c>
       <c r="K22">
-        <v>1.027101874861294</v>
+        <v>1.055904741417114</v>
       </c>
       <c r="L22">
-        <v>1.014945045659874</v>
+        <v>1.053115460712558</v>
       </c>
       <c r="M22">
-        <v>1.024270634578751</v>
+        <v>1.062787859457203</v>
       </c>
       <c r="N22">
-        <v>1.009223342758059</v>
+        <v>1.021083908580877</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9909944860373778</v>
+        <v>1.045964505764166</v>
       </c>
       <c r="D23">
-        <v>1.013756080149332</v>
+        <v>1.052618375526911</v>
       </c>
       <c r="E23">
-        <v>1.001638095871919</v>
+        <v>1.049879237287132</v>
       </c>
       <c r="F23">
-        <v>1.011191958004047</v>
+        <v>1.059597408428171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040269083112092</v>
+        <v>1.044228383223917</v>
       </c>
       <c r="J23">
-        <v>1.021465785221167</v>
+        <v>1.052592683782968</v>
       </c>
       <c r="K23">
-        <v>1.028753247123771</v>
+        <v>1.056197340402387</v>
       </c>
       <c r="L23">
-        <v>1.016865110583201</v>
+        <v>1.053468250195625</v>
       </c>
       <c r="M23">
-        <v>1.026237159796676</v>
+        <v>1.063151031287817</v>
       </c>
       <c r="N23">
-        <v>1.009835704495895</v>
+        <v>1.02119160934528</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000620706796801</v>
+        <v>1.047703031036519</v>
       </c>
       <c r="D24">
-        <v>1.02139799550146</v>
+        <v>1.05403923742042</v>
       </c>
       <c r="E24">
-        <v>1.010357119594915</v>
+        <v>1.051539511432036</v>
       </c>
       <c r="F24">
-        <v>1.020073586258434</v>
+        <v>1.061295941430034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043771181178141</v>
+        <v>1.044762244052666</v>
       </c>
       <c r="J24">
-        <v>1.028094884039138</v>
+        <v>1.053814899590658</v>
       </c>
       <c r="K24">
-        <v>1.03505947735997</v>
+        <v>1.057347532017761</v>
       </c>
       <c r="L24">
-        <v>1.024204761524827</v>
+        <v>1.05485622615875</v>
       </c>
       <c r="M24">
-        <v>1.033757124924699</v>
+        <v>1.064580038989138</v>
       </c>
       <c r="N24">
-        <v>1.012173442120459</v>
+        <v>1.021614608036587</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011247039943697</v>
+        <v>1.049719699010481</v>
       </c>
       <c r="D25">
-        <v>1.029857196126154</v>
+        <v>1.055687373477433</v>
       </c>
       <c r="E25">
-        <v>1.020013440165877</v>
+        <v>1.053467000568463</v>
       </c>
       <c r="F25">
-        <v>1.029914396017801</v>
+        <v>1.063268140253982</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047598401638861</v>
+        <v>1.045375848695526</v>
       </c>
       <c r="J25">
-        <v>1.035401735509048</v>
+        <v>1.055229979060163</v>
       </c>
       <c r="K25">
-        <v>1.042009046722067</v>
+        <v>1.058678686609494</v>
       </c>
       <c r="L25">
-        <v>1.032308818887757</v>
+        <v>1.056465023323535</v>
       </c>
       <c r="M25">
-        <v>1.042065422760649</v>
+        <v>1.066236775461223</v>
       </c>
       <c r="N25">
-        <v>1.014747740607955</v>
+        <v>1.022103391797692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051327616492103</v>
+        <v>1.019334463052445</v>
       </c>
       <c r="D2">
-        <v>1.057001391769153</v>
+        <v>1.036310562921398</v>
       </c>
       <c r="E2">
-        <v>1.055005077837572</v>
+        <v>1.027385231874389</v>
       </c>
       <c r="F2">
-        <v>1.064842128277711</v>
+        <v>1.037430221710788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045860508727283</v>
+        <v>1.050478268725268</v>
       </c>
       <c r="J2">
-        <v>1.056356072460677</v>
+        <v>1.040951871240139</v>
       </c>
       <c r="K2">
-        <v>1.059737558029918</v>
+        <v>1.047286190754748</v>
       </c>
       <c r="L2">
-        <v>1.057746727003507</v>
+        <v>1.038475788178413</v>
       </c>
       <c r="M2">
-        <v>1.067556975148261</v>
+        <v>1.048391606419319</v>
       </c>
       <c r="N2">
-        <v>1.022491572486312</v>
+        <v>1.016700590168172</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052494811593085</v>
+        <v>1.025003752031187</v>
       </c>
       <c r="D3">
-        <v>1.057955194014173</v>
+        <v>1.0408417367864</v>
       </c>
       <c r="E3">
-        <v>1.056122298255516</v>
+        <v>1.032564847522973</v>
       </c>
       <c r="F3">
-        <v>1.065985567628592</v>
+        <v>1.042712744525948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046209669369522</v>
+        <v>1.052477108926266</v>
       </c>
       <c r="J3">
-        <v>1.057172245307255</v>
+        <v>1.044835244720419</v>
       </c>
       <c r="K3">
-        <v>1.060504754297706</v>
+        <v>1.050977406346636</v>
       </c>
       <c r="L3">
-        <v>1.058676527299321</v>
+        <v>1.042797343645184</v>
       </c>
       <c r="M3">
-        <v>1.068514876785215</v>
+        <v>1.052826789394134</v>
       </c>
       <c r="N3">
-        <v>1.022772460480003</v>
+        <v>1.018065242127445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053249939910301</v>
+        <v>1.028584858324944</v>
       </c>
       <c r="D4">
-        <v>1.058572238221572</v>
+        <v>1.04370689271899</v>
       </c>
       <c r="E4">
-        <v>1.056845426037172</v>
+        <v>1.035841863772961</v>
       </c>
       <c r="F4">
-        <v>1.066725727466742</v>
+        <v>1.04605561565516</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046434332139521</v>
+        <v>1.053730197027689</v>
       </c>
       <c r="J4">
-        <v>1.057699689611451</v>
+        <v>1.047284585056662</v>
       </c>
       <c r="K4">
-        <v>1.061000429027795</v>
+        <v>1.053304949253627</v>
       </c>
       <c r="L4">
-        <v>1.059277793150013</v>
+        <v>1.04552612942582</v>
       </c>
       <c r="M4">
-        <v>1.069134395142485</v>
+        <v>1.055628235944578</v>
       </c>
       <c r="N4">
-        <v>1.022953768284958</v>
+        <v>1.018925072421867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053567367335855</v>
+        <v>1.030070361968846</v>
       </c>
       <c r="D5">
-        <v>1.058831613064274</v>
+        <v>1.044896056181519</v>
       </c>
       <c r="E5">
-        <v>1.057149480417672</v>
+        <v>1.037202433682452</v>
       </c>
       <c r="F5">
-        <v>1.067036958040134</v>
+        <v>1.047443701474547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046528477224533</v>
+        <v>1.054247674831381</v>
       </c>
       <c r="J5">
-        <v>1.057921266515857</v>
+        <v>1.048299692596358</v>
       </c>
       <c r="K5">
-        <v>1.061208631091416</v>
+        <v>1.054269425641244</v>
       </c>
       <c r="L5">
-        <v>1.059530475788334</v>
+        <v>1.046657792294686</v>
       </c>
       <c r="M5">
-        <v>1.069394767620412</v>
+        <v>1.056790245783926</v>
       </c>
       <c r="N5">
-        <v>1.02302988352844</v>
+        <v>1.019281195481954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053620663165659</v>
+        <v>1.030318637467948</v>
       </c>
       <c r="D6">
-        <v>1.05887516146492</v>
+        <v>1.045094840053186</v>
       </c>
       <c r="E6">
-        <v>1.057200535528099</v>
+        <v>1.037429898500072</v>
       </c>
       <c r="F6">
-        <v>1.067089218997086</v>
+        <v>1.04767577656727</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046544266830882</v>
+        <v>1.05433402419139</v>
       </c>
       <c r="J6">
-        <v>1.057958460851068</v>
+        <v>1.048469294453889</v>
       </c>
       <c r="K6">
-        <v>1.06124357861922</v>
+        <v>1.054430558873989</v>
       </c>
       <c r="L6">
-        <v>1.059572897087383</v>
+        <v>1.046846911688893</v>
       </c>
       <c r="M6">
-        <v>1.069438481042732</v>
+        <v>1.056984449066776</v>
       </c>
       <c r="N6">
-        <v>1.023042657366993</v>
+        <v>1.019340682059548</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053254181501398</v>
+        <v>1.028604785099107</v>
       </c>
       <c r="D7">
-        <v>1.058575704120307</v>
+        <v>1.043722841857857</v>
       </c>
       <c r="E7">
-        <v>1.056849488623425</v>
+        <v>1.035860109948755</v>
       </c>
       <c r="F7">
-        <v>1.066729885879146</v>
+        <v>1.046074230157995</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04643559130152</v>
+        <v>1.053737147796942</v>
       </c>
       <c r="J7">
-        <v>1.057702650963379</v>
+        <v>1.047298205557775</v>
       </c>
       <c r="K7">
-        <v>1.061003211738919</v>
+        <v>1.05331789101515</v>
       </c>
       <c r="L7">
-        <v>1.059281169858615</v>
+        <v>1.045541310903365</v>
       </c>
       <c r="M7">
-        <v>1.069137874538381</v>
+        <v>1.055643823694825</v>
       </c>
       <c r="N7">
-        <v>1.022954785759141</v>
+        <v>1.018929851717084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05172210225568</v>
+        <v>1.02126906684448</v>
       </c>
       <c r="D8">
-        <v>1.057323760838637</v>
+        <v>1.037856131960209</v>
       </c>
       <c r="E8">
-        <v>1.055382604426728</v>
+        <v>1.029151612643766</v>
       </c>
       <c r="F8">
-        <v>1.065228501852431</v>
+        <v>1.03923153585161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045978771829607</v>
+        <v>1.051162332505709</v>
       </c>
       <c r="J8">
-        <v>1.056632041894915</v>
+        <v>1.042277787537571</v>
       </c>
       <c r="K8">
-        <v>1.059996991765978</v>
+        <v>1.048546617726912</v>
       </c>
       <c r="L8">
-        <v>1.058061035906462</v>
+        <v>1.03995067068453</v>
       </c>
       <c r="M8">
-        <v>1.067880766703347</v>
+        <v>1.049905073138658</v>
       </c>
       <c r="N8">
-        <v>1.022586592203989</v>
+        <v>1.017166708348244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049021363063224</v>
+        <v>1.007630060574688</v>
       </c>
       <c r="D9">
-        <v>1.055116661615341</v>
+        <v>1.026975222485266</v>
       </c>
       <c r="E9">
-        <v>1.052799348793757</v>
+        <v>1.016722885907935</v>
       </c>
       <c r="F9">
-        <v>1.062584965402987</v>
+        <v>1.026560447811351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04516407621411</v>
+        <v>1.046300787721761</v>
       </c>
       <c r="J9">
-        <v>1.054740297391627</v>
+        <v>1.032916229241986</v>
       </c>
       <c r="K9">
-        <v>1.058218114019024</v>
+        <v>1.039645297398878</v>
       </c>
       <c r="L9">
-        <v>1.055908081499276</v>
+        <v>1.029550349789507</v>
       </c>
       <c r="M9">
-        <v>1.065663190594871</v>
+        <v>1.039236812383391</v>
       </c>
       <c r="N9">
-        <v>1.021934371430367</v>
+        <v>1.013872428436176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047220094499922</v>
+        <v>0.9979915693184207</v>
       </c>
       <c r="D10">
-        <v>1.053644545459211</v>
+        <v>1.019308760201275</v>
       </c>
       <c r="E10">
-        <v>1.051078186251793</v>
+        <v>1.007973092734975</v>
       </c>
       <c r="F10">
-        <v>1.060823962520831</v>
+        <v>1.017644726840862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044614389257994</v>
+        <v>1.042817697031453</v>
       </c>
       <c r="J10">
-        <v>1.053475595306247</v>
+        <v>1.026285100017609</v>
       </c>
       <c r="K10">
-        <v>1.057028264443794</v>
+        <v>1.03333792622466</v>
       </c>
       <c r="L10">
-        <v>1.054470763342813</v>
+        <v>1.022199867426416</v>
       </c>
       <c r="M10">
-        <v>1.064183151135706</v>
+        <v>1.031702544511254</v>
       </c>
       <c r="N10">
-        <v>1.02149725287779</v>
+        <v>1.011535393346357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04643992052577</v>
+        <v>0.9936718661009887</v>
       </c>
       <c r="D11">
-        <v>1.053006924475879</v>
+        <v>1.0158794576211</v>
       </c>
       <c r="E11">
-        <v>1.050333129704329</v>
+        <v>1.004060463566319</v>
       </c>
       <c r="F11">
-        <v>1.060061737453761</v>
+        <v>1.013659126486349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04437480863045</v>
+        <v>1.041246098542679</v>
       </c>
       <c r="J11">
-        <v>1.052927114843271</v>
+        <v>1.023310293209207</v>
       </c>
       <c r="K11">
-        <v>1.056512104762732</v>
+        <v>1.030507997709946</v>
       </c>
       <c r="L11">
-        <v>1.053847898769691</v>
+        <v>1.018906209602571</v>
       </c>
       <c r="M11">
-        <v>1.063541873707439</v>
+        <v>1.028327968355516</v>
       </c>
       <c r="N11">
-        <v>1.021307427064008</v>
+        <v>1.010486323358574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046150095313479</v>
+        <v>0.992043799296719</v>
       </c>
       <c r="D12">
-        <v>1.052770055032101</v>
+        <v>1.014588073421155</v>
       </c>
       <c r="E12">
-        <v>1.050056414069533</v>
+        <v>1.002587219123078</v>
       </c>
       <c r="F12">
-        <v>1.059778657119713</v>
+        <v>1.012158600673164</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044285582468237</v>
+        <v>1.040652249155195</v>
       </c>
       <c r="J12">
-        <v>1.052723255109011</v>
+        <v>1.022188738869342</v>
       </c>
       <c r="K12">
-        <v>1.056320236911199</v>
+        <v>1.029441025891904</v>
       </c>
       <c r="L12">
-        <v>1.053616463438976</v>
+        <v>1.017665019391982</v>
       </c>
       <c r="M12">
-        <v>1.063303611953976</v>
+        <v>1.027056510324026</v>
       </c>
       <c r="N12">
-        <v>1.021236834367634</v>
+        <v>1.010090726296522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046212265368002</v>
+        <v>0.9923941171666655</v>
       </c>
       <c r="D13">
-        <v>1.052820865640367</v>
+        <v>1.014865894586959</v>
       </c>
       <c r="E13">
-        <v>1.050115769105193</v>
+        <v>1.002904158712217</v>
       </c>
       <c r="F13">
-        <v>1.059839376840752</v>
+        <v>1.012481400329378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044304732436408</v>
+        <v>1.040780097962326</v>
       </c>
       <c r="J13">
-        <v>1.052766989598675</v>
+        <v>1.022430083903141</v>
       </c>
       <c r="K13">
-        <v>1.0563613997095</v>
+        <v>1.029670626929459</v>
       </c>
       <c r="L13">
-        <v>1.053666110546538</v>
+        <v>1.017932082644393</v>
       </c>
       <c r="M13">
-        <v>1.063354722766436</v>
+        <v>1.027330075849265</v>
       </c>
       <c r="N13">
-        <v>1.021251980497208</v>
+        <v>1.010175857320415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046415964185</v>
+        <v>0.9935377793705279</v>
       </c>
       <c r="D14">
-        <v>1.052987345362425</v>
+        <v>1.015773076985394</v>
       </c>
       <c r="E14">
-        <v>1.050310255667395</v>
+        <v>1.003939099040198</v>
       </c>
       <c r="F14">
-        <v>1.060038337054513</v>
+        <v>1.013535510522721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044367437969931</v>
+        <v>1.04119721999233</v>
       </c>
       <c r="J14">
-        <v>1.052910266385319</v>
+        <v>1.023217929677352</v>
       </c>
       <c r="K14">
-        <v>1.056496247831944</v>
+        <v>1.030420129922355</v>
       </c>
       <c r="L14">
-        <v>1.053828769803744</v>
+        <v>1.018803981992042</v>
       </c>
       <c r="M14">
-        <v>1.06352218020318</v>
+        <v>1.028223243164964</v>
       </c>
       <c r="N14">
-        <v>1.021301593542852</v>
+        <v>1.010453746198353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046541465205591</v>
+        <v>0.9942392589195499</v>
       </c>
       <c r="D15">
-        <v>1.053089915196337</v>
+        <v>1.016329656402984</v>
       </c>
       <c r="E15">
-        <v>1.050430089399541</v>
+        <v>1.004574079359628</v>
       </c>
       <c r="F15">
-        <v>1.060160928802483</v>
+        <v>1.014182278386931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044406041731008</v>
+        <v>1.041452868206987</v>
       </c>
       <c r="J15">
-        <v>1.052998526728512</v>
+        <v>1.023701118177031</v>
       </c>
       <c r="K15">
-        <v>1.05657931321337</v>
+        <v>1.0308797979884</v>
       </c>
       <c r="L15">
-        <v>1.053928979476434</v>
+        <v>1.019338796661433</v>
       </c>
       <c r="M15">
-        <v>1.063625347907639</v>
+        <v>1.028771133441671</v>
       </c>
       <c r="N15">
-        <v>1.021332150781244</v>
+        <v>1.010624166501737</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047271867432374</v>
+        <v>0.9982750429000941</v>
       </c>
       <c r="D16">
-        <v>1.053686858295931</v>
+        <v>1.019533948423509</v>
       </c>
       <c r="E16">
-        <v>1.05112763769229</v>
+        <v>1.008230041795321</v>
       </c>
       <c r="F16">
-        <v>1.060874555123528</v>
+        <v>1.017906494424669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044630256471883</v>
+        <v>1.042920616237176</v>
       </c>
       <c r="J16">
-        <v>1.053511978021454</v>
+        <v>1.026480261951587</v>
       </c>
       <c r="K16">
-        <v>1.057062500234238</v>
+        <v>1.033523577159326</v>
       </c>
       <c r="L16">
-        <v>1.054512090259921</v>
+        <v>1.022416027443153</v>
       </c>
       <c r="M16">
-        <v>1.064225701864171</v>
+        <v>1.031924045766355</v>
       </c>
       <c r="N16">
-        <v>1.021509839373016</v>
+        <v>1.011604205540632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047729971146171</v>
+        <v>1.000766381546954</v>
       </c>
       <c r="D17">
-        <v>1.054061254823704</v>
+        <v>1.021513799644641</v>
       </c>
       <c r="E17">
-        <v>1.051565248848916</v>
+        <v>1.010489272171441</v>
       </c>
       <c r="F17">
-        <v>1.061322273749387</v>
+        <v>1.020208232243343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04477048176757</v>
+        <v>1.043823940819949</v>
       </c>
       <c r="J17">
-        <v>1.053833822507396</v>
+        <v>1.028195140665919</v>
       </c>
       <c r="K17">
-        <v>1.057365336527932</v>
+        <v>1.035154843717868</v>
       </c>
       <c r="L17">
-        <v>1.054877726572901</v>
+        <v>1.024315852510993</v>
       </c>
       <c r="M17">
-        <v>1.064602177356137</v>
+        <v>1.03387097863213</v>
       </c>
       <c r="N17">
-        <v>1.021621151169803</v>
+        <v>1.01220878379014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047997154886728</v>
+        <v>1.002205547585607</v>
       </c>
       <c r="D18">
-        <v>1.054279616192707</v>
+        <v>1.02265811160213</v>
       </c>
       <c r="E18">
-        <v>1.051820521168404</v>
+        <v>1.01179518150554</v>
       </c>
       <c r="F18">
-        <v>1.061583449552573</v>
+        <v>1.021538827601927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044852122080049</v>
+        <v>1.044344758491677</v>
       </c>
       <c r="J18">
-        <v>1.054021466418634</v>
+        <v>1.029185490154483</v>
       </c>
       <c r="K18">
-        <v>1.057541884506273</v>
+        <v>1.036096871434264</v>
       </c>
       <c r="L18">
-        <v>1.055090948235637</v>
+        <v>1.025413374086904</v>
       </c>
       <c r="M18">
-        <v>1.06482172959906</v>
+        <v>1.034995848999471</v>
       </c>
       <c r="N18">
-        <v>1.02168602434769</v>
+        <v>1.012557867874941</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048088254234012</v>
+        <v>1.002693938622321</v>
       </c>
       <c r="D19">
-        <v>1.05435406878406</v>
+        <v>1.023046543261402</v>
       </c>
       <c r="E19">
-        <v>1.051907566055172</v>
+        <v>1.012238488598372</v>
       </c>
       <c r="F19">
-        <v>1.06167250872494</v>
+        <v>1.021990533933678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044879933765443</v>
+        <v>1.044521329491365</v>
       </c>
       <c r="J19">
-        <v>1.054085434176159</v>
+        <v>1.029521522590349</v>
       </c>
       <c r="K19">
-        <v>1.057602067344179</v>
+        <v>1.036416501509149</v>
       </c>
       <c r="L19">
-        <v>1.055163643236923</v>
+        <v>1.025785832736222</v>
       </c>
       <c r="M19">
-        <v>1.064896584565937</v>
+        <v>1.035377611403168</v>
       </c>
       <c r="N19">
-        <v>1.021708135423068</v>
+        <v>1.012676303427999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047680823077136</v>
+        <v>1.000500542424458</v>
       </c>
       <c r="D20">
-        <v>1.054021087465592</v>
+        <v>1.021302474305178</v>
       </c>
       <c r="E20">
-        <v>1.051518295135912</v>
+        <v>1.010248114069621</v>
       </c>
       <c r="F20">
-        <v>1.06127423477613</v>
+        <v>1.019962524706583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044755452514622</v>
+        <v>1.043727655045215</v>
       </c>
       <c r="J20">
-        <v>1.053799300184047</v>
+        <v>1.028012182627252</v>
       </c>
       <c r="K20">
-        <v>1.057332854510356</v>
+        <v>1.034980809714612</v>
       </c>
       <c r="L20">
-        <v>1.054838502210297</v>
+        <v>1.024113124946525</v>
       </c>
       <c r="M20">
-        <v>1.064561789196407</v>
+        <v>1.033663210198597</v>
       </c>
       <c r="N20">
-        <v>1.021609213962365</v>
+        <v>1.012144288520224</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04635598091037</v>
+        <v>0.9932016624843589</v>
       </c>
       <c r="D21">
-        <v>1.052938322030424</v>
+        <v>1.015506429342012</v>
       </c>
       <c r="E21">
-        <v>1.050252983361573</v>
+        <v>1.003634895861479</v>
       </c>
       <c r="F21">
-        <v>1.059979747025698</v>
+        <v>1.013225667236048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04434897925122</v>
+        <v>1.041074671202536</v>
       </c>
       <c r="J21">
-        <v>1.052868078530659</v>
+        <v>1.022986395144723</v>
       </c>
       <c r="K21">
-        <v>1.056456542380095</v>
+        <v>1.030199864630783</v>
       </c>
       <c r="L21">
-        <v>1.053780872805296</v>
+        <v>1.018547729709073</v>
       </c>
       <c r="M21">
-        <v>1.063472869903089</v>
+        <v>1.027960733907827</v>
       </c>
       <c r="N21">
-        <v>1.021286986028697</v>
+        <v>1.010372081395023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045522803211208</v>
+        <v>0.9884754987806188</v>
       </c>
       <c r="D22">
-        <v>1.052257378424178</v>
+        <v>1.011759837529326</v>
       </c>
       <c r="E22">
-        <v>1.049457613497551</v>
+        <v>0.9993609177860803</v>
       </c>
       <c r="F22">
-        <v>1.059166105139699</v>
+        <v>1.008872926358211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044092052050142</v>
+        <v>1.039347952773435</v>
       </c>
       <c r="J22">
-        <v>1.052281831771311</v>
+        <v>1.019729981866278</v>
       </c>
       <c r="K22">
-        <v>1.055904741417114</v>
+        <v>1.027101874861295</v>
       </c>
       <c r="L22">
-        <v>1.053115460712558</v>
+        <v>1.014945045659875</v>
       </c>
       <c r="M22">
-        <v>1.062787859457203</v>
+        <v>1.024270634578752</v>
       </c>
       <c r="N22">
-        <v>1.021083908580877</v>
+        <v>1.009223342758059</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045964505764166</v>
+        <v>0.9909944860373776</v>
       </c>
       <c r="D23">
-        <v>1.052618375526911</v>
+        <v>1.013756080149332</v>
       </c>
       <c r="E23">
-        <v>1.049879237287132</v>
+        <v>1.001638095871919</v>
       </c>
       <c r="F23">
-        <v>1.059597408428171</v>
+        <v>1.011191958004046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044228383223917</v>
+        <v>1.040269083112092</v>
       </c>
       <c r="J23">
-        <v>1.052592683782968</v>
+        <v>1.021465785221167</v>
       </c>
       <c r="K23">
-        <v>1.056197340402387</v>
+        <v>1.028753247123771</v>
       </c>
       <c r="L23">
-        <v>1.053468250195625</v>
+        <v>1.016865110583201</v>
       </c>
       <c r="M23">
-        <v>1.063151031287817</v>
+        <v>1.026237159796676</v>
       </c>
       <c r="N23">
-        <v>1.02119160934528</v>
+        <v>1.009835704495895</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047703031036519</v>
+        <v>1.0006207067968</v>
       </c>
       <c r="D24">
-        <v>1.05403923742042</v>
+        <v>1.02139799550146</v>
       </c>
       <c r="E24">
-        <v>1.051539511432036</v>
+        <v>1.010357119594915</v>
       </c>
       <c r="F24">
-        <v>1.061295941430034</v>
+        <v>1.020073586258434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044762244052666</v>
+        <v>1.043771181178141</v>
       </c>
       <c r="J24">
-        <v>1.053814899590658</v>
+        <v>1.028094884039138</v>
       </c>
       <c r="K24">
-        <v>1.057347532017761</v>
+        <v>1.03505947735997</v>
       </c>
       <c r="L24">
-        <v>1.05485622615875</v>
+        <v>1.024204761524826</v>
       </c>
       <c r="M24">
-        <v>1.064580038989138</v>
+        <v>1.033757124924699</v>
       </c>
       <c r="N24">
-        <v>1.021614608036587</v>
+        <v>1.012173442120459</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049719699010481</v>
+        <v>1.011247039943695</v>
       </c>
       <c r="D25">
-        <v>1.055687373477433</v>
+        <v>1.029857196126152</v>
       </c>
       <c r="E25">
-        <v>1.053467000568463</v>
+        <v>1.020013440165876</v>
       </c>
       <c r="F25">
-        <v>1.063268140253982</v>
+        <v>1.029914396017799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045375848695526</v>
+        <v>1.04759840163886</v>
       </c>
       <c r="J25">
-        <v>1.055229979060163</v>
+        <v>1.035401735509047</v>
       </c>
       <c r="K25">
-        <v>1.058678686609494</v>
+        <v>1.042009046722065</v>
       </c>
       <c r="L25">
-        <v>1.056465023323535</v>
+        <v>1.032308818887755</v>
       </c>
       <c r="M25">
-        <v>1.066236775461223</v>
+        <v>1.042065422760647</v>
       </c>
       <c r="N25">
-        <v>1.022103391797692</v>
+        <v>1.014747740607954</v>
       </c>
     </row>
   </sheetData>
